--- a/dang_ky.xlsx
+++ b/dang_ky.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,14 +474,29 @@
           <t>Thời gian</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ngày sinh</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chức vụ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Trình độ chuyên môn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nguyễn Chúc Công</t>
+          <t xml:space="preserve">Nguyễn Chúc Công </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,10 +514,8 @@
           <t>Có</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0968374191</t>
-        </is>
+      <c r="F2" t="n">
+        <v>968374191</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,7 +524,2063 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-18 22:51:00</t>
+          <t>2025-02-21 16:48:48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20/10/1991</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phó Trưởng phòng </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Phạm Mạnh Hà</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Khoa Truyền nhiễm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>912584962</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:02:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30/10/1971</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Trưởng khoa</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dương Văn Hậu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Khoa Liên chuyên khoa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>904678552</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Haubvda2012@gmail.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:14:59</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>05/02/1989</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Nhân viên</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phạm Thảo Ly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Khoa Hồi sức cấp cứu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>972533197</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:29:41</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>22/09/1997</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Nhân viên</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Trang</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>353855005</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Trangthuong2218@gmail.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:34:25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>22/08/1991</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>978881811</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nguyenphuong89dkda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:35:07</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15/04/1989</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>978881811</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nguyenphuong89dkda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:35:10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15/04/1989</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>978881811</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nguyenphuong89dkda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:35:14</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15/04/1989</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>978881811</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nguyenphuong89dkda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:35:19</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15/04/1989</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ngô Bích Ngọc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>375805008</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ngobichngoc96@gmail.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:37:55</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>07/11/1997</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chu Thị Như Quỳnh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>972713142</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nhuquynhhvqy@gmail.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:39:53</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>08/04/1996</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Đào Thu Tuyên</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>915084182</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:41:34</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>04/01/1989</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương Nhung</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>966828391</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:45:04</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>08/11/1991</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thu Huyền</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>032 9036456</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:48:40</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>26/02/1996</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trương Quỳnh Anh</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0842801452</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:48:58</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>29/11/1999</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Kim Anh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Phòng Kế hoạch tổng hợp</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0965623186</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>79haianh79@gmail.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-02-21 17:49:35</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>18/09/1979</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Trưởng phòng KHTH</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>CKII</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vũ Thị Hà</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Khoa Khám bệnh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0974684922</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Bsha489@gmail.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:18:15</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10/04/1989</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lê Trung Hậu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Khoa Chấn thương chỉnh hình</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0943105644</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Trunghau73@gmail.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:34:22</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>25/04/1986</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ngô Thị Giang</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Khoa Nội tim mạch</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0988638916</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-02-21 19:34:05</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>28/03/1985</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ThS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tạ Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Khoa Nội tổng hợp</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0973838214</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-02-21 19:56:09</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>21/04/1995</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bác sỹ </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tạ Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Khoa Nội tổng hợp</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0973838214</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tathilananh95@gmail.com </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-02-21 19:56:16</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>21/04/1995</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bác sỹ </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tạ Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Khoa Nội tổng hợp</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0973838214</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tathilananh95@gmail.com </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-02-21 19:56:26</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>21/04/1995</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bác sỹ </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chu Thị Thu Hà</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Khoa Khám bệnh</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0816734567</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>chuthithuha0105@gmail.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-02-21 20:41:51</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>01/05/1984</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nhân viên</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ngô anh quang</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Khoa Phụ sản</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0983260659</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Anhquangbvda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-02-21 21:19:44</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>07/11/1983</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Phó trưởng khoa</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>CKII</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Khanh</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Khoa Nhi</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0977092132</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>khanhk23@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-02-21 21:29:03</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>06/09/1983</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Trưởng Khoa</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>CKII</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Tùng</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Khoa Nhi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0335957597</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vantung12101996@gmail.com</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-02-21 21:29:30</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12/10/1996</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Nhân viên</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nguyễn Thanh Hường</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Khoa Nhi</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0979669707</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>nguyenthanhhuong25188@gmail.com</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-02-21 21:31:14</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>25/01/1988</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bùi Thành Đạt</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Khoa Nhi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0375990918</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>thanhdat7276@gmail.com</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-02-21 21:37:55</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>13/10/1997</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ThS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ngô Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Khoa Nhi</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0367047396</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ngothuytrangdhyd@gmail.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:49:49</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>09/10/1993</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TẠ MINH NGỌC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Khoa Nội tổng hợp</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0973849470</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>drminhngocta@gmail.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-02-21 23:00:30</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>14/07/1990</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ThS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nguyễn Đức Hùng</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0934263673</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ndhung1611@gmail.com</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-02-22 20:21:20</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16/11/1994</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VŨ THỊ THANH</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0974247566</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Bsthanh5289@gmail.com</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-02-22 20:24:03</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>05/02/1989</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Hương Giang</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0915464882</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>giangbvdkda@gmail.com</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-02-22 20:24:46</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>08/11/1975</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Xuân</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0366211996</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-02-22 20:27:44</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>21/10/1996</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vũ quỳnh anh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0367741297</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-02-22 21:13:54</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>21/12/1997</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Bác sỹ</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lê tuấn đại</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0337629533</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Letuandai55555@gmail. Com</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-02-23 07:54:26</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>01/04/1986</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nguyễn Thanh Ban</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Khoa Nội tổng hợp</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0337643836</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Bongsenhong68@gmail.com</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-02-23 09:35:02</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>12/03/1989</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Nv</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lại duy tiến</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Khoa Thăm dò chức năng</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0976606973</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>laiduytien@gmail.com</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:43:17</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>03/12/1980</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trưởng khoa thăm dò chức năng </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nguyễn Lan Hương</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Khoa Liên chuyên khoa</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0977040589</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-02-24 07:37:41</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>22/08/1989</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Điều dưỡng viên</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Vui</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Khoa Liên chuyên khoa</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0389393884</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>vui01102020@gmail.com</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-02-24 08:04:25</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20/09/1984</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Điều dưỡng trưởng khoa</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Đại học</t>
         </is>
       </c>
     </row>

--- a/dang_ky.xlsx
+++ b/dang_ky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2584,6 +2584,116 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương Anh</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Khoa Liên chuyên khoa</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0363558688</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Phuonganhhom@gmail.com</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-02-24 08:25:11</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>12/07/1993</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Điều dưỡng</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Cao đẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Phạm Thị Thu</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Khoa Liên chuyên khoa</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0983564922</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>bsthubvdonganh@gmail.com</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-02-24 08:26:08</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19/11/1983</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Bác sỹ</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ThS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
